--- a/Employee_Reports28/Lester John Fuentes Monter Q0607.xlsx
+++ b/Employee_Reports28/Lester John Fuentes Monter Q0607.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,10 +28,7 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <color rgb="00FFFFFF"/>
     </font>
   </fonts>
   <fills count="3">
@@ -71,7 +68,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -562,11 +559,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -611,11 +608,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -660,11 +657,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -709,11 +706,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -758,11 +755,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -807,11 +804,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -856,11 +853,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -905,11 +902,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -954,11 +951,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1003,11 +1000,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1052,11 +1049,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1101,11 +1098,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1150,11 +1147,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1199,11 +1196,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1248,11 +1245,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1297,11 +1294,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1334,11 +1331,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1383,11 +1380,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1430,11 +1427,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1477,11 +1474,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1524,11 +1521,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1571,11 +1568,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1618,11 +1615,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1665,11 +1662,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1712,11 +1709,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1759,11 +1756,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1806,11 +1803,11 @@
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
@@ -1843,11 +1840,11 @@
         </is>
       </c>
       <c r="H30" s="3" t="n">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
@@ -1880,11 +1877,11 @@
         </is>
       </c>
       <c r="H31" s="3" t="n">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J31" s="3" t="inlineStr">
@@ -1917,11 +1914,11 @@
         </is>
       </c>
       <c r="H32" s="3" t="n">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
@@ -1954,11 +1951,11 @@
         </is>
       </c>
       <c r="H33" s="3" t="n">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="I33" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J33" s="3" t="inlineStr">
@@ -1991,11 +1988,11 @@
         </is>
       </c>
       <c r="H34" s="3" t="n">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="I34" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J34" s="3" t="inlineStr">
@@ -2028,11 +2025,11 @@
         </is>
       </c>
       <c r="H35" s="3" t="n">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="I35" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J35" s="3" t="inlineStr">
@@ -2065,11 +2062,11 @@
         </is>
       </c>
       <c r="H36" s="3" t="n">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="I36" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J36" s="3" t="inlineStr">
@@ -2102,11 +2099,11 @@
         </is>
       </c>
       <c r="H37" s="3" t="n">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="I37" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J37" s="3" t="inlineStr">
@@ -2139,11 +2136,11 @@
         </is>
       </c>
       <c r="H38" s="3" t="n">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="I38" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J38" s="3" t="inlineStr">
@@ -2176,11 +2173,11 @@
         </is>
       </c>
       <c r="H39" s="3" t="n">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="I39" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J39" s="3" t="inlineStr">
